--- a/template_glossary.xlsx
+++ b/template_glossary.xlsx
@@ -9,22 +9,16 @@
   <sheets>
     <sheet name="template_glossary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="264">
   <si>
     <t>columnName</t>
   </si>
   <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>defaultValue</t>
-  </si>
-  <si>
     <t>valueType</t>
   </si>
   <si>
@@ -37,18 +31,9 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>Original character string provided as species name by the data owner (kept for reference only)</t>
   </si>
   <si>
@@ -148,27 +133,15 @@
     <t>http://rs.tdwg.org/dwc/terms/basisOfRecord</t>
   </si>
   <si>
-    <t>How and from which kind of speciment were the data obtained? Options are: Taken by own measurement (distinguish LivingSpecimen, PreservedSpecimen, FossilSpecimen) or taken from literature (literatureData), from an existing trait database (traitDatabase), or expert knowledge (expertKnowledge).</t>
-  </si>
-  <si>
     <t>basisOfRecordDescription</t>
   </si>
   <si>
-    <t>Adding more detail to the basisOfRecord. If life specimens were sampled, where did they come from? Have they been reared in cultivation? If literature data, provide type of literature, e.g. textbook, website, database, etc. If preserved specimens were used, which method of pre</t>
-  </si>
-  <si>
     <t>measurementID</t>
   </si>
   <si>
     <t>http://rs.tdwg.org/dwc/terms/measurementID</t>
   </si>
   <si>
-    <t xml:space="preserve">An auto-generated unique identifier for each entry of data compiled as a MD5 hash from the following columns 'specimenID', 'measurementValue_user', 'scientificName_user', 'traitName_user', 'basisOfRecord', as well as the fields from class 'specimen' and 'location'. </t>
-  </si>
-  <si>
-    <t>This allows a row-wise comparison of data from different versions and sources and an elimination of duplicates.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A unique, dataset-specific identifier. Links multi-value trait measurements, e.g. x-y-z coordinates of a morphometric landmark, biochemical compound quantities for different chainlengths. In this case, the trait names must specifiy the sub-measurement, e.g. "landmark32_x", and must be specified in a reference trait list, given in the field "measurementMethod". </t>
   </si>
   <si>
@@ -268,9 +241,6 @@
     <t>logical</t>
   </si>
   <si>
-    <t xml:space="preserve">Is measurementValue reporting an individual measurement or an aggregate Measure? TRUE or FALSE, defaults to FALSE. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This is flagging aggregate data in an unambiguous way. Aggregate measures are often reported for repeated measures, e.g. replicate measurements of leaf size from a single plant individual or for grouped measurement, e.g. for weightings of a counted number of specimens (e.g. leaves or small organisms). </t>
   </si>
   <si>
@@ -604,15 +574,9 @@
     <t>Exploratory</t>
   </si>
   <si>
-    <t>Exploratories Region (Hainich, Schorfheide, Alb) for sorting purpose and readability, or if exact Plot ID is not available. Report the Region in format: A, H, S.</t>
-  </si>
-  <si>
     <t>ExploType</t>
   </si>
   <si>
-    <t>W for forest or G for grassland plot. This is automaticall extracted by the R script from ExploratoriesPlotID, if provided.</t>
-  </si>
-  <si>
     <t>Namespace</t>
   </si>
   <si>
@@ -634,27 +598,12 @@
     <t>occurenceID</t>
   </si>
   <si>
-    <t>occurenceID_original</t>
-  </si>
-  <si>
-    <t>traitName_original</t>
-  </si>
-  <si>
-    <t>traitValue_original</t>
-  </si>
-  <si>
-    <t>traitUnit_original</t>
-  </si>
-  <si>
     <t>traitValue</t>
   </si>
   <si>
     <t>traitUnit</t>
   </si>
   <si>
-    <t>measurementID_original</t>
-  </si>
-  <si>
     <t>MeasurementOrFact</t>
   </si>
   <si>
@@ -709,9 +658,6 @@
     <t>Traitdata</t>
   </si>
   <si>
-    <t>scientificName_original</t>
-  </si>
-  <si>
     <t>vocabulary</t>
   </si>
   <si>
@@ -727,9 +673,6 @@
     <t>TRUE;FALSE</t>
   </si>
   <si>
-    <t>H;S;A</t>
-  </si>
-  <si>
     <t>W; G</t>
   </si>
   <si>
@@ -757,19 +700,112 @@
     <t>http://rs.tdwg.org/dwc/terms/occurrenceID</t>
   </si>
   <si>
-    <t xml:space="preserve">Original user-defined identifier of the individual or specimen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can be of any format. </t>
-  </si>
-  <si>
-    <t>A character string user defined by the data author; a museum ID referring to the individual specimen from which the data were measured; usually does not apply for literature data.</t>
-  </si>
-  <si>
-    <t>This is important for the analysis of co-variation of morphometric data or intraspecific variation. It may also couples multiple measurements on a single specimen, which also could be a leaf or a single bone without an assignment to an individual organism. If available, upload related dataset to describe specimens more precisely, e.g. environmental parameters or identity related information. May map to DWC OccurenceID (http://rs.tdwg.org/dwc/terms/occurrenceID)</t>
-  </si>
-  <si>
     <t>Represents the date, at which the specimens were extracted or sampled. If providing eventDate, then enter format of type: YYYY-MM-DD hh:mm TIMEZONE (fall back to 12:00 if no time is available).</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/verbatimElevation</t>
+  </si>
+  <si>
+    <t>traitNameStd</t>
+  </si>
+  <si>
+    <t>scientificNameStd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is important for the analysis of co-variation of morphometric data or intraspecific variation. It may also couples multiple measurements on a single specimen, which also could be a leaf or a single bone without an assignment to an individual organism. If available, upload related dataset to describe specimens more precisely, e.g. environmental parameters or identity related information. </t>
+  </si>
+  <si>
+    <t>A character string user defined by the data author.  It is recommended best practice to use a globally unique identifier, if available, e.g. a museum ID referring to the individual specimen from which the data were measured. usually does not apply for literature data.</t>
+  </si>
+  <si>
+    <t>traitValueStd</t>
+  </si>
+  <si>
+    <t>traitUnitStd</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#occurenceid</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#measurementid</t>
+  </si>
+  <si>
+    <t>Is measurementValue reporting an individual measurement or an aggregate Measure? Takes a binary entry: TRUE or FALSE</t>
+  </si>
+  <si>
+    <t>v0.3</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#scientificname</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#taxonid</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#taxonrank</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#kingdom</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#traitname</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#traitid</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#traitvalue</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#traitunit</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#scientificnamestd</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#traitnamestd</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#traitvaluestd</t>
+  </si>
+  <si>
+    <t>http://fdschneider.de/bexis_traits/traitdatastandard.html#traitunitstd</t>
+  </si>
+  <si>
+    <t>Options are: Taken by own measurement (distinguish LivingSpecimen, PreservedSpecimen, FossilSpecimen) or taken from literature (literatureData), from an existing trait database (traitDatabase), or expert knowledge (expertKnowledge).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How and from which kind of specimen were the data obtained? Use of the controlled vocabulary is recommended. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding more detail to the basisOfRecord. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If life specimens were sampled, where did they come from? Have they been reared in cultivation? If literature data or online database, provide type of literature, e.g. textbook, website, URL, etc. If preserved specimens were used, which method of preservation? In case of expert knowledge, give the name of the authority. </t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/eventID</t>
+  </si>
+  <si>
+    <t>occurenceRemarks</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/occurrenceRemarks</t>
+  </si>
+  <si>
+    <t>Comments or notes about the Occurrence.</t>
+  </si>
+  <si>
+    <t>Example: "found dead on road". For discussion see http://terms.tdwg.org/wiki/dwc:occurrenceRemarks</t>
+  </si>
+  <si>
+    <t>HAI; SCH; ALB</t>
+  </si>
+  <si>
+    <t>Exploratories Region (Hainich, Schorfheide, Alb) for sorting purpose and readability, or if exact Plot ID is not available. Report the Region in format: HAI; SCH; ALB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W for forest or G for grassland plot. </t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1290,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1601,23 +1638,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="13" max="14" width="58.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="11" max="12" width="58.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1626,1629 +1663,1732 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>246</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H16" t="s">
+        <v>239</v>
+      </c>
+      <c r="I16" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>239</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>239</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="D17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I17" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="L19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="1" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="1" t="s">
+    <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="H21" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="1" t="s">
+    </row>
+    <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="H23" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="H24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I24" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
+        <v>239</v>
+      </c>
+      <c r="I26" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="H27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
         <v>89</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="H30" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>213</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="L30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>239</v>
+      </c>
+      <c r="I31" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="L31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="1" t="s">
+    </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="H32" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="33" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
         <v>99</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="H33" t="s">
+        <v>239</v>
+      </c>
+      <c r="I33" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
         <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="H36" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
+        <v>239</v>
+      </c>
+      <c r="I37" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" t="s">
         <v>110</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="H38" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
         <v>115</v>
       </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="M38" s="1" t="s">
+      <c r="H39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
         <v>118</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="H40" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="L40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
         <v>122</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="H41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>87</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="L41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
         <v>126</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="H42" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" t="s">
+    </row>
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
         <v>130</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="H43" t="s">
+        <v>239</v>
+      </c>
+      <c r="I43" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
         <v>132</v>
       </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
         <v>133</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="H44" t="s">
+        <v>239</v>
+      </c>
+      <c r="I44" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>136</v>
       </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="H45" t="s">
+        <v>239</v>
+      </c>
+      <c r="I45" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" t="s">
+        <v>239</v>
+      </c>
+      <c r="I47" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" t="s">
+        <v>239</v>
+      </c>
+      <c r="I48" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" t="s">
+        <v>239</v>
+      </c>
+      <c r="I49" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" t="s">
+        <v>239</v>
+      </c>
+      <c r="I52" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K52" t="s">
+        <v>259</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" t="s">
+        <v>239</v>
+      </c>
+      <c r="I53" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" t="s">
+        <v>239</v>
+      </c>
+      <c r="I54" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" t="s">
+        <v>239</v>
+      </c>
+      <c r="I55" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" t="s">
+        <v>239</v>
+      </c>
+      <c r="I56" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H57" t="s">
+        <v>239</v>
+      </c>
+      <c r="I57" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="H44" t="s">
-        <v>137</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
-        <v>140</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s">
-        <v>143</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>214</v>
-      </c>
-      <c r="B47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" t="s">
-        <v>150</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B50" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
-        <v>157</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>214</v>
-      </c>
-      <c r="B51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" t="s">
-        <v>160</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" t="s">
-        <v>163</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
-        <v>167</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" t="s">
-        <v>171</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" t="s">
-        <v>175</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" t="s">
-        <v>179</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N56" s="1" t="s">
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="H58" t="s">
+        <v>239</v>
+      </c>
+      <c r="I58" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="L58" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" t="s">
+    </row>
+    <row r="59" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" t="s">
         <v>183</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>239</v>
+      </c>
+      <c r="I59" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N57" s="1" t="s">
+    </row>
+    <row r="60" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>261</v>
+      </c>
+      <c r="H60" t="s">
+        <v>239</v>
+      </c>
+      <c r="I60" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" t="s">
         <v>186</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" t="s">
-        <v>187</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" t="s">
-        <v>83</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>216</v>
-      </c>
-      <c r="B61" t="s">
-        <v>195</v>
-      </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>237</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="H61" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" s="2">
+        <v>42923</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="H62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I62" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="H63" t="s">
+        <v>239</v>
+      </c>
+      <c r="I63" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="H64" t="s">
+        <v>239</v>
+      </c>
+      <c r="I64" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>239</v>
+      </c>
+      <c r="I65" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="H66" t="s">
+        <v>239</v>
+      </c>
+      <c r="I66" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H67" t="s">
+        <v>239</v>
+      </c>
+      <c r="I67" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>239</v>
+      </c>
+      <c r="I68" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="H69" t="s">
+        <v>239</v>
+      </c>
+      <c r="I69" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="H70" t="s">
+        <v>239</v>
+      </c>
+      <c r="I70" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="H71" t="s">
+        <v>239</v>
+      </c>
+      <c r="I71" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="H72" t="s">
+        <v>239</v>
+      </c>
+      <c r="I72" s="2">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74" t="s">
-        <v>229</v>
+        <v>212</v>
+      </c>
+      <c r="H73" t="s">
+        <v>239</v>
+      </c>
+      <c r="I73" s="2">
+        <v>42923</v>
       </c>
     </row>
   </sheetData>
